--- a/Ressourcen/Docs/Plants Doc.xlsx
+++ b/Ressourcen/Docs/Plants Doc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositories\Dreamers-Garden_Game\Ressourcen\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594EE09D-C165-4772-A1F6-85C99D65B145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7943E1-3B42-4A8A-AF00-7A08607EDA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{CFC539C6-04FB-435C-B762-9D2E1EF00861}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="205">
   <si>
     <t xml:space="preserve">Destroy a card </t>
   </si>
@@ -557,9 +557,6 @@
     <t>Produces deadwood</t>
   </si>
   <si>
-    <t>Artichoke Rocks</t>
-  </si>
-  <si>
     <t>Produces Moon Stone</t>
   </si>
   <si>
@@ -648,6 +645,12 @@
   </si>
   <si>
     <t>Radiant Rootbush</t>
+  </si>
+  <si>
+    <t>Artichoke Gems</t>
+  </si>
+  <si>
+    <t>Weed</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +733,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -743,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -755,6 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,7 +1109,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,11 +1189,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
         <v>84</v>
@@ -1404,28 +1414,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>188</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>189</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I10" t="s">
         <v>51</v>
@@ -1468,22 +1478,22 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>8</v>
@@ -1499,7 +1509,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1628,22 +1638,22 @@
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>6</v>
@@ -1811,22 +1821,22 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>8</v>
@@ -1842,7 +1852,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1875,28 +1885,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
         <v>198</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>199</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I25" t="s">
         <v>51</v>
@@ -1971,22 +1981,22 @@
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>6</v>
@@ -2163,13 +2173,13 @@
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>37</v>
@@ -2178,14 +2188,14 @@
         <v>170</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -2282,22 +2292,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>8</v>
@@ -2346,13 +2356,13 @@
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>37</v>
@@ -2361,13 +2371,13 @@
         <v>170</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>51</v>
@@ -2384,7 +2394,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>37</v>

--- a/Ressourcen/Docs/Plants Doc.xlsx
+++ b/Ressourcen/Docs/Plants Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositories\Dreamers-Garden_Game\Ressourcen\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7943E1-3B42-4A8A-AF00-7A08607EDA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01775C1-4C67-4CDB-8CA5-0583ADE39201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{CFC539C6-04FB-435C-B762-9D2E1EF00861}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="9970" xr2:uid="{CFC539C6-04FB-435C-B762-9D2E1EF00861}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="206">
   <si>
     <t xml:space="preserve">Destroy a card </t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>Weed</t>
+  </si>
+  <si>
+    <t>It needs a while, but will deliver a lot of deadwood once grown.</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1112,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1221,7 +1224,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1249,11 +1252,11 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1301,7 +1304,7 @@
         <v>81</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>6</v>

--- a/Ressourcen/Docs/Plants Doc.xlsx
+++ b/Ressourcen/Docs/Plants Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositories\Dreamers-Garden_Game\Ressourcen\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01775C1-4C67-4CDB-8CA5-0583ADE39201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5C8500-7A92-4EF9-8595-F4BA1719D315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="9970" xr2:uid="{CFC539C6-04FB-435C-B762-9D2E1EF00861}"/>
   </bookViews>
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="9" t="s">
